--- a/excel files/school_studentextra.xlsx
+++ b/excel files/school_studentextra.xlsx
@@ -2682,7 +2682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2843,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>5</v>
@@ -2944,7 +2946,7 @@
         <v>8</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>5</v>
@@ -3045,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -3146,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -3247,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -3348,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -3449,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -3550,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -3651,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -3752,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -3853,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -3954,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -4055,7 +4057,7 @@
         <v>8</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -4156,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -4257,7 +4259,7 @@
         <v>8</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -4358,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -4459,7 +4461,7 @@
         <v>8</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -4560,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -4661,7 +4663,7 @@
         <v>8</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -4762,7 +4764,7 @@
         <v>8</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>5</v>
@@ -4863,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -4964,7 +4966,7 @@
         <v>8</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>5</v>
@@ -5065,7 +5067,7 @@
         <v>8</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -5166,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -5267,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>5</v>
@@ -5368,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -5469,7 +5471,7 @@
         <v>8</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>5</v>
@@ -5570,7 +5572,7 @@
         <v>8</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -5671,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>5</v>
@@ -5772,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -5873,7 +5875,7 @@
         <v>8</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -5974,7 +5976,7 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>5</v>
@@ -6075,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>5</v>
@@ -6176,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>5</v>
@@ -6277,7 +6279,7 @@
         <v>8</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36">
         <v>5</v>
@@ -6378,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37">
         <v>5</v>
@@ -6479,7 +6481,7 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>5</v>
@@ -6580,7 +6582,7 @@
         <v>8</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>5</v>
@@ -6681,7 +6683,7 @@
         <v>8</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>5</v>
@@ -6782,7 +6784,7 @@
         <v>8</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>5</v>
@@ -9004,7 +9006,7 @@
         <v>8</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>6</v>
@@ -9105,7 +9107,7 @@
         <v>8</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -9206,7 +9208,7 @@
         <v>8</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -9307,7 +9309,7 @@
         <v>8</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>6</v>
@@ -9408,7 +9410,7 @@
         <v>8</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T67">
         <v>6</v>
@@ -9509,7 +9511,7 @@
         <v>8</v>
       </c>
       <c r="S68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>6</v>
@@ -9610,7 +9612,7 @@
         <v>8</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>6</v>
@@ -9711,7 +9713,7 @@
         <v>8</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>6</v>
@@ -9812,7 +9814,7 @@
         <v>8</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>6</v>
@@ -9913,7 +9915,7 @@
         <v>8</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>6</v>
@@ -10014,7 +10016,7 @@
         <v>8</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>6</v>
@@ -10115,7 +10117,7 @@
         <v>8</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T74">
         <v>6</v>
@@ -10216,7 +10218,7 @@
         <v>8</v>
       </c>
       <c r="S75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>6</v>
@@ -10317,7 +10319,7 @@
         <v>8</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>6</v>
@@ -10418,7 +10420,7 @@
         <v>8</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>6</v>
@@ -10519,7 +10521,7 @@
         <v>8</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>6</v>
@@ -10620,7 +10622,7 @@
         <v>8</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>6</v>
@@ -10721,7 +10723,7 @@
         <v>8</v>
       </c>
       <c r="S80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>6</v>
@@ -10822,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="S81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T81">
         <v>6</v>
@@ -10923,7 +10925,7 @@
         <v>8</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T82">
         <v>6</v>
@@ -11024,7 +11026,7 @@
         <v>8</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>6</v>
@@ -11125,7 +11127,7 @@
         <v>8</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>6</v>
@@ -11226,7 +11228,7 @@
         <v>8</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>6</v>
@@ -11327,7 +11329,7 @@
         <v>8</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>6</v>
@@ -11428,7 +11430,7 @@
         <v>8</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>6</v>
@@ -11529,7 +11531,7 @@
         <v>8</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>6</v>
@@ -11630,7 +11632,7 @@
         <v>8</v>
       </c>
       <c r="S89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>6</v>
@@ -11731,7 +11733,7 @@
         <v>8</v>
       </c>
       <c r="S90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>6</v>
@@ -11832,7 +11834,7 @@
         <v>8</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>6</v>
@@ -11933,7 +11935,7 @@
         <v>8</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>6</v>
@@ -12034,7 +12036,7 @@
         <v>8</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>6</v>
@@ -12135,7 +12137,7 @@
         <v>8</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T94">
         <v>6</v>
@@ -12236,7 +12238,7 @@
         <v>8</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>6</v>
@@ -12337,7 +12339,7 @@
         <v>8</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>6</v>
@@ -12438,7 +12440,7 @@
         <v>8</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>6</v>
@@ -12539,7 +12541,7 @@
         <v>8</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>6</v>
@@ -12640,7 +12642,7 @@
         <v>8</v>
       </c>
       <c r="S99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T99">
         <v>6</v>
@@ -12741,7 +12743,7 @@
         <v>8</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>6</v>
@@ -12842,7 +12844,7 @@
         <v>8</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>6</v>
@@ -12943,7 +12945,7 @@
         <v>8</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>6</v>
@@ -13044,7 +13046,7 @@
         <v>8</v>
       </c>
       <c r="S103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>7</v>
@@ -13145,7 +13147,7 @@
         <v>8</v>
       </c>
       <c r="S104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>7</v>
@@ -13246,7 +13248,7 @@
         <v>8</v>
       </c>
       <c r="S105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>7</v>
@@ -13347,7 +13349,7 @@
         <v>8</v>
       </c>
       <c r="S106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>7</v>
@@ -13448,7 +13450,7 @@
         <v>8</v>
       </c>
       <c r="S107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>7</v>
@@ -13549,7 +13551,7 @@
         <v>8</v>
       </c>
       <c r="S108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>7</v>
@@ -13650,7 +13652,7 @@
         <v>8</v>
       </c>
       <c r="S109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>7</v>
@@ -13751,7 +13753,7 @@
         <v>8</v>
       </c>
       <c r="S110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>7</v>
@@ -13852,7 +13854,7 @@
         <v>8</v>
       </c>
       <c r="S111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>7</v>
@@ -13953,7 +13955,7 @@
         <v>8</v>
       </c>
       <c r="S112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>7</v>
@@ -14054,7 +14056,7 @@
         <v>8</v>
       </c>
       <c r="S113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>7</v>
@@ -14155,7 +14157,7 @@
         <v>8</v>
       </c>
       <c r="S114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>7</v>
@@ -14256,7 +14258,7 @@
         <v>8</v>
       </c>
       <c r="S115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>7</v>
@@ -14357,7 +14359,7 @@
         <v>8</v>
       </c>
       <c r="S116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>7</v>
@@ -14458,7 +14460,7 @@
         <v>8</v>
       </c>
       <c r="S117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>7</v>
@@ -14559,7 +14561,7 @@
         <v>8</v>
       </c>
       <c r="S118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>7</v>
@@ -14660,7 +14662,7 @@
         <v>8</v>
       </c>
       <c r="S119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>7</v>
@@ -14761,7 +14763,7 @@
         <v>8</v>
       </c>
       <c r="S120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>7</v>
@@ -14862,7 +14864,7 @@
         <v>8</v>
       </c>
       <c r="S121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>7</v>
@@ -14963,7 +14965,7 @@
         <v>8</v>
       </c>
       <c r="S122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T122">
         <v>7</v>
@@ -15064,7 +15066,7 @@
         <v>8</v>
       </c>
       <c r="S123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>7</v>
@@ -15165,7 +15167,7 @@
         <v>8</v>
       </c>
       <c r="S124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>7</v>
@@ -15266,7 +15268,7 @@
         <v>8</v>
       </c>
       <c r="S125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>7</v>
@@ -15367,7 +15369,7 @@
         <v>8</v>
       </c>
       <c r="S126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>7</v>
@@ -15468,7 +15470,7 @@
         <v>8</v>
       </c>
       <c r="S127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>7</v>
@@ -15569,7 +15571,7 @@
         <v>8</v>
       </c>
       <c r="S128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>7</v>
@@ -15670,7 +15672,7 @@
         <v>8</v>
       </c>
       <c r="S129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T129">
         <v>7</v>
@@ -15771,7 +15773,7 @@
         <v>8</v>
       </c>
       <c r="S130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>7</v>
@@ -15872,7 +15874,7 @@
         <v>8</v>
       </c>
       <c r="S131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>7</v>
@@ -15973,7 +15975,7 @@
         <v>8</v>
       </c>
       <c r="S132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>7</v>
@@ -16074,7 +16076,7 @@
         <v>8</v>
       </c>
       <c r="S133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>7</v>
@@ -16175,7 +16177,7 @@
         <v>8</v>
       </c>
       <c r="S134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>7</v>
@@ -16276,7 +16278,7 @@
         <v>8</v>
       </c>
       <c r="S135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>7</v>
@@ -16377,7 +16379,7 @@
         <v>8</v>
       </c>
       <c r="S136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>7</v>
@@ -16478,7 +16480,7 @@
         <v>8</v>
       </c>
       <c r="S137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>7</v>
@@ -16579,7 +16581,7 @@
         <v>8</v>
       </c>
       <c r="S138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>7</v>
@@ -16680,7 +16682,7 @@
         <v>8</v>
       </c>
       <c r="S139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>7</v>
@@ -16781,7 +16783,7 @@
         <v>8</v>
       </c>
       <c r="S140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>7</v>
@@ -16882,7 +16884,7 @@
         <v>8</v>
       </c>
       <c r="S141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>7</v>
@@ -16983,7 +16985,7 @@
         <v>8</v>
       </c>
       <c r="S142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>7</v>
